--- a/Thresholding/StanDep/Mean_HK_R_inclusion.xlsx
+++ b/Thresholding/StanDep/Mean_HK_R_inclusion.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="2" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="10" uniqueCount="1">
   <si>
     <t>Mean_HK_R_inclusion</t>
   </si>
@@ -77,7 +77,7 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>1765</v>
+        <v>2241</v>
       </c>
     </row>
   </sheetData>
